--- a/flowshop_problem/stats/algorithms_stats.xlsx
+++ b/flowshop_problem/stats/algorithms_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikuba\PycharmProjects\SPD\flowshop_problem\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6FE165-0587-4901-AB02-4EB1C93E4C8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20551593-636E-4DC3-87A5-D1C184DFEDF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CB874C67-1AA7-491E-8DC2-147ABB7F12DF}"/>
+    <workbookView xWindow="-23148" yWindow="1428" windowWidth="23256" windowHeight="12576" xr2:uid="{CB874C67-1AA7-491E-8DC2-147ABB7F12DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Podsumowanie" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="13">
   <si>
     <t>Algorytm</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Cmax  [średnia]</t>
-  </si>
-  <si>
-    <t>Suma z Cmax  [średnia]</t>
   </si>
   <si>
     <t>Suma z t [ms]</t>
@@ -462,7 +459,7 @@
     <cellStyle name="Komórka zaznaczona" xfId="2" builtinId="23"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="396">
+  <dxfs count="162">
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -1776,30 +1773,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -1810,9 +1783,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1832,9 +1802,44 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1874,6 +1879,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1893,6 +1901,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1902,42 +1913,16 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -1950,2126 +1935,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4496,6 +2361,118 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -4512,7 +2489,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma z Cmax  [średnia]</c:v>
+                  <c:v>Suma</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4560,89 +2537,6 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1777</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1583</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1579</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1575</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1578</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1562</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D588-45A6-8549-D6B7BF3B4155}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Podsumowanie!$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Suma z t [ms]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Podsumowanie!$A$5:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Johnson N maszynowy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEH</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEH rozszerzony 1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>NEH rozszerzony 2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>NEH rozszerzony 3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>NEH rozszerzony 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Podsumowanie!$C$5:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
                   <c:v>1.405</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -4665,7 +2559,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-D588-45A6-8549-D6B7BF3B4155}"/>
+              <c16:uniqueId val="{00000006-D588-45A6-8549-D6B7BF3B4155}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5436,16 +3330,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>253477</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>219578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>475130</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>233082</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5861,8 +3755,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F4E76F6C-28FD-43B9-94D8-6AC06D215407}" name="Tabela przestawna1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Algorytm  ">
-  <location ref="A4:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F4E76F6C-28FD-43B9-94D8-6AC06D215407}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Algorytm  ">
+  <location ref="A4:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
@@ -5875,7 +3769,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -5918,94 +3812,85 @@
       <x v="5"/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
   <pageFields count="2">
     <pageField fld="3" item="0" hier="-1"/>
     <pageField fld="4" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Suma z Cmax  [średnia]" fld="1" baseField="0" baseItem="0"/>
+  <dataFields count="1">
     <dataField name="Suma z t [ms]" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="18">
-    <format dxfId="378">
+    <format dxfId="161">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="379">
+    <format dxfId="160">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="380">
+    <format dxfId="159">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="381">
+    <format dxfId="158">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="382">
+    <format dxfId="157">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="383">
+    <format dxfId="156">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="384">
+    <format dxfId="155">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="385">
+    <format dxfId="154">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="386">
+    <format dxfId="153">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="387">
+    <format dxfId="152">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="388">
+    <format dxfId="151">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="389">
+    <format dxfId="150">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="390">
+    <format dxfId="149">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="391">
+    <format dxfId="148">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="392">
+    <format dxfId="147">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="393">
+    <format dxfId="146">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="394">
+    <format dxfId="145">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="395">
+    <format dxfId="144">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -6013,57 +3898,12 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="6">
-    <chartFormat chart="2" format="5" series="1">
+  <chartFormats count="1">
+    <chartFormat chart="0" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -6380,15 +4220,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1B5508-3774-44D2-93BC-D3D6801778E0}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="3"/>
@@ -6424,9 +4264,7 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
@@ -6437,11 +4275,9 @@
         <v>2</v>
       </c>
       <c r="B5" s="9">
-        <v>1777</v>
-      </c>
-      <c r="C5" s="9">
         <v>1.405</v>
       </c>
+      <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
@@ -6452,11 +4288,9 @@
         <v>3</v>
       </c>
       <c r="B6" s="9">
-        <v>1583</v>
-      </c>
-      <c r="C6" s="9">
         <v>85.587999999999994</v>
       </c>
+      <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
@@ -6467,11 +4301,9 @@
         <v>4</v>
       </c>
       <c r="B7" s="9">
-        <v>1579</v>
-      </c>
-      <c r="C7" s="9">
         <v>176.608</v>
       </c>
+      <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
@@ -6482,11 +4314,9 @@
         <v>5</v>
       </c>
       <c r="B8" s="9">
-        <v>1575</v>
-      </c>
-      <c r="C8" s="9">
         <v>169.8</v>
       </c>
+      <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
@@ -6497,11 +4327,9 @@
         <v>6</v>
       </c>
       <c r="B9" s="9">
-        <v>1578</v>
-      </c>
-      <c r="C9" s="9">
         <v>170.107</v>
       </c>
+      <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
@@ -6512,11 +4340,9 @@
         <v>7</v>
       </c>
       <c r="B10" s="9">
-        <v>1562</v>
-      </c>
-      <c r="C10" s="9">
         <v>251.887</v>
       </c>
+      <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
@@ -6580,7 +4406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929F22A8-E983-4847-84A3-FE2FC09A0A6D}">
   <dimension ref="E4:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C16" workbookViewId="0">
       <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>

--- a/flowshop_problem/stats/algorithms_stats.xlsx
+++ b/flowshop_problem/stats/algorithms_stats.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikuba\PycharmProjects\SPD\flowshop_problem\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20551593-636E-4DC3-87A5-D1C184DFEDF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E19365-172E-4431-A63E-E560741A9569}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1428" windowWidth="23256" windowHeight="12576" xr2:uid="{CB874C67-1AA7-491E-8DC2-147ABB7F12DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CB874C67-1AA7-491E-8DC2-147ABB7F12DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Podsumowanie" sheetId="2" r:id="rId1"/>
     <sheet name="Dane" sheetId="1" r:id="rId2"/>
+    <sheet name="tabu search wnioski" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="19" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
   <si>
     <t>Algorytm</t>
   </si>
@@ -78,6 +79,66 @@
   <si>
     <t>Suma z t [ms]</t>
   </si>
+  <si>
+    <t>Suma z Cmax  [średnia]</t>
+  </si>
+  <si>
+    <t>tabu search 80 iteracji, zmodyfikowany random swap + johnson na start</t>
+  </si>
+  <si>
+    <t>tabu search 50 iteracji, zmodyfikowany random swap + johnson na start</t>
+  </si>
+  <si>
+    <t>tabu search 20 iteracji, zmodyfikowany random swap + johnson na start</t>
+  </si>
+  <si>
+    <t>Iteracje</t>
+  </si>
+  <si>
+    <t>Wniosek</t>
+  </si>
+  <si>
+    <t>tabu search 30 iteracji, zmodyfikowany random swap + johnson na start</t>
+  </si>
+  <si>
+    <t>Zwiększanie liczby iteracji poprawia wyniki, jednak po przekroczeniu pewnej granicy zyski jakie mamy w rezultatach nie kompensują znacznego pogorszenia czasu</t>
+  </si>
+  <si>
+    <t>Składowa</t>
+  </si>
+  <si>
+    <t>tabu search 200 iteracji, zmodyfikowany random swap + johnson na start</t>
+  </si>
+  <si>
+    <t>Dla małej liczby zadań (20) możemy zwiększyć liczbe iteracji (np. do 200,300), wtedy czas nie będzie aż tak duży (rzędu kilku sekund), a wyniki są lepsze od NEHa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Im więcej iteracji, tym większy czas trwania, zmiana czasu jest liniowa</t>
+  </si>
+  <si>
+    <t>Dla większej liczby zadań możemy zmniejszyć liczbę iteracji w ten sposób uzyskamy czasy wykonywania lepsze od NEHa a wyniki podobne</t>
+  </si>
+  <si>
+    <t>warunki początkowe</t>
+  </si>
+  <si>
+    <t>Dla dużej liczby iteracji wejście tabu searcha ma mniejsze znaczenie, ale dla mniejszej liczby iteracji (np. do 150) algorytm daje lepsze wyniki z johnsonem na starcie</t>
+  </si>
+  <si>
+    <t>Dla małej liczby zadań (20/50) można na początek dać NEHa, ponieważ działa on na mniejszej liczbie zadań dość szybko - wyniki są lepsze, a dla dużej liczby zadań lepiej dać na start johnsona ze względu na czas wykonania</t>
+  </si>
+  <si>
+    <t>kryterium stopu</t>
+  </si>
+  <si>
+    <t>liczba iteracji - opisana wyżej</t>
+  </si>
+  <si>
+    <t>Gdy przyjmiemy czas potrzebny na policzenia NEHa przy dużej liczbie zadań, wtedy otrzymujemy lepsze wyniki w algorytmie metaheurystycznym</t>
+  </si>
+  <si>
+    <t>Czas trwania algorytmu - np. algorytm ma zakończyć pracę po 10 sekundach - to kryterium może sprawdzać się dla bardzo dużej liczby zadań, gdzie potrzebujemy jakieś rozwiązanie, a nie możemy liczyć w nieskończoność</t>
+  </si>
 </sst>
 </file>
 
@@ -86,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +208,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -166,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -378,88 +457,151 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Dane wyjściowe" xfId="1" builtinId="21"/>
     <cellStyle name="Komórka zaznaczona" xfId="2" builtinId="23"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="162">
+  <dxfs count="92">
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -625,6 +767,21 @@
       </border>
     </dxf>
     <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -789,6 +946,21 @@
       </border>
     </dxf>
     <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -953,824 +1125,34 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <border>
@@ -2473,6 +1855,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2489,7 +1927,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma</c:v>
+                  <c:v>Suma z t [ms]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2506,9 +1944,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Podsumowanie!$A$5:$A$10</c:f>
+              <c:f>Podsumowanie!$A$5:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Johnson N maszynowy</c:v>
                 </c:pt>
@@ -2527,15 +1965,18 @@
                 <c:pt idx="5">
                   <c:v>NEH rozszerzony 4</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>tabu search 200 iteracji, zmodyfikowany random swap + johnson na start</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Podsumowanie!$B$5:$B$10</c:f>
+              <c:f>Podsumowanie!$B$5:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.405</c:v>
                 </c:pt>
@@ -2554,12 +1995,104 @@
                 <c:pt idx="5">
                   <c:v>251.887</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1765</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-D588-45A6-8549-D6B7BF3B4155}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Podsumowanie!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma z Cmax  [średnia]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Podsumowanie!$A$5:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Johnson N maszynowy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEH</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEH rozszerzony 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NEH rozszerzony 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NEH rozszerzony 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NEH rozszerzony 4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tabu search 200 iteracji, zmodyfikowany random swap + johnson na start</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Podsumowanie!$C$5:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1579</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1578</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1562</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D778-4DD4-B8FA-C61DBA1ED8A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3331,15 +2864,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>253477</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>219578</xdr:rowOff>
+      <xdr:colOff>612065</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>475130</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>233082</xdr:rowOff>
+      <xdr:rowOff>134472</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3368,40 +2901,49 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kuba Kędzierski" refreshedDate="44292.563955671299" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="48" xr:uid="{450CD30C-5766-4FCA-AD83-B8F9F9C3F703}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kuba Kędzierski" refreshedDate="44300.693982638892" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="55" xr:uid="{11B2C4DB-0C22-45FA-8AB2-B400B190B13A}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="E6:I54" sheet="Dane"/>
+    <worksheetSource ref="E6:I214" sheet="Dane"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Algorytm" numFmtId="0">
-      <sharedItems count="6">
+      <sharedItems containsBlank="1" count="13">
         <s v="Johnson N maszynowy"/>
         <s v="NEH"/>
         <s v="NEH rozszerzony 1"/>
         <s v="NEH rozszerzony 2"/>
         <s v="NEH rozszerzony 3"/>
         <s v="NEH rozszerzony 4"/>
+        <s v="tabu search 80 iteracji, zmodyfikowany random swap + johnson na start"/>
+        <s v="tabu search 50 iteracji, zmodyfikowany random swap + johnson na start"/>
+        <s v="tabu search 20 iteracji, zmodyfikowany random swap + johnson na start"/>
+        <s v="tabu search 30 iteracji, zmodyfikowany random swap + johnson na start"/>
+        <s v="tabu search 200 iteracji, zmodyfikowany random swap + johnson na start"/>
+        <m/>
+        <s v="tabu search 200 iteracji" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Cmax  [średnia]" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1248.8" maxValue="11632"/>
+    <cacheField name="Cmax  [średnia]" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1248.8" maxValue="11632"/>
     </cacheField>
-    <cacheField name="t [ms]" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.004" maxValue="145707"/>
+    <cacheField name="t [ms]" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.004" maxValue="145707"/>
     </cacheField>
     <cacheField name="liczba zadań" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="200" count="4">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="20" maxValue="200" count="5">
         <n v="20"/>
         <n v="50"/>
         <n v="100"/>
         <n v="200"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="liczba maszyn" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="20" count="3">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="20" count="4">
         <n v="5"/>
         <n v="10"/>
         <n v="20"/>
+        <m/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -3414,7 +2956,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="48">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="55">
   <r>
     <x v="0"/>
     <n v="1382.8"/>
@@ -3751,26 +3293,92 @@
     <x v="3"/>
     <x v="0"/>
   </r>
+  <r>
+    <x v="6"/>
+    <n v="2297"/>
+    <n v="953.4"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2307"/>
+    <n v="588.6"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2326"/>
+    <n v="356.8"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="3925"/>
+    <n v="10703"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="4018"/>
+    <n v="3839"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1556"/>
+    <n v="1765"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="3"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F4E76F6C-28FD-43B9-94D8-6AC06D215407}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Algorytm  ">
-  <location ref="A4:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FF3F0DB-C94A-4912-8435-A3E0BD722A82}" name="Tabela przestawna1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Algorytm  ">
+  <location ref="A4:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
-      <items count="7">
+      <items count="14">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item m="1" x="12"/>
+        <item x="11"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
         <item x="0"/>
@@ -3780,19 +3388,11 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -3811,99 +3411,154 @@
     <i>
       <x v="5"/>
     </i>
+    <i>
+      <x v="12"/>
+    </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
   <pageFields count="2">
     <pageField fld="3" item="0" hier="-1"/>
     <pageField fld="4" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
+  <dataFields count="2">
     <dataField name="Suma z t [ms]" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Suma z Cmax  [średnia]" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="18">
-    <format dxfId="161">
+  <formats count="23">
+    <format dxfId="91">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="160">
+    <format dxfId="90">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="159">
+    <format dxfId="89">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="158">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="157">
+    <format dxfId="87">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="156">
+    <format dxfId="86">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="155">
+    <format dxfId="85">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="154">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="153">
+    <format dxfId="83">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="152">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="151">
+    <format dxfId="81">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="150">
+    <format dxfId="80">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="149">
+    <format dxfId="79">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="148">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="147">
+    <format dxfId="77">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="146">
+    <format dxfId="76">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="145">
+    <format dxfId="75">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="144">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
+    <format dxfId="73">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="72">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="71">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="70">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="7">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="69">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
   </formats>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="0" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -4220,180 +3875,202 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1B5508-3774-44D2-93BC-D3D6801778E0}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="27" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="24">
         <v>20</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="24">
         <v>10</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" s="28" t="s">
+        <v>13</v>
+      </c>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="29">
         <v>1.405</v>
       </c>
-      <c r="C5"/>
+      <c r="C5" s="29">
+        <v>1777</v>
+      </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="29">
         <v>85.587999999999994</v>
       </c>
-      <c r="C6"/>
+      <c r="C6" s="29">
+        <v>1583</v>
+      </c>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="29">
         <v>176.608</v>
       </c>
-      <c r="C7"/>
+      <c r="C7" s="29">
+        <v>1579</v>
+      </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="29">
         <v>169.8</v>
       </c>
-      <c r="C8"/>
+      <c r="C8" s="29">
+        <v>1575</v>
+      </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="29">
         <v>170.107</v>
       </c>
-      <c r="C9"/>
+      <c r="C9" s="29">
+        <v>1578</v>
+      </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="29">
         <v>251.887</v>
       </c>
-      <c r="C10"/>
+      <c r="C10" s="29">
+        <v>1562</v>
+      </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
+    <row r="11" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="29">
+        <v>1765</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1556</v>
+      </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
-    </row>
-    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
+      <c r="C13"/>
     </row>
     <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14"/>
-      <c r="B14"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
     </row>
     <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15"/>
-      <c r="B15"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
     </row>
     <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16"/>
-      <c r="B16"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
     </row>
     <row r="17" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17"/>
+      <c r="A17" s="30"/>
     </row>
     <row r="18" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18"/>
+      <c r="A18" s="30"/>
     </row>
     <row r="19" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19"/>
+      <c r="A19" s="30"/>
     </row>
     <row r="20" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20"/>
+      <c r="A20" s="30"/>
     </row>
     <row r="21" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21"/>
+      <c r="A21" s="30"/>
     </row>
     <row r="22" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22"/>
+      <c r="A22" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4404,869 +4081,1011 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929F22A8-E983-4847-84A3-FE2FC09A0A6D}">
-  <dimension ref="E4:I54"/>
+  <dimension ref="E4:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" topLeftCell="C48" workbookViewId="0">
+      <selection activeCell="P60" sqref="P60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="25.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="17" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17" style="4" customWidth="1"/>
     <col min="11" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="5:9" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="5:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="8">
         <f>1.3828*10^3</f>
         <v>1382.8</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="9">
         <v>1.004</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="10">
         <v>20</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="5:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="13">
         <v>1261.0999999999999</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="14">
         <v>41.79</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="15">
         <v>20</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="5:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="13">
         <v>1248.8</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="14">
         <v>86.29</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="15">
         <v>20</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="5:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="13">
         <v>1258.8</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="14">
         <v>83.11</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="15">
         <v>20</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="5:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="13">
         <v>1255.3</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="14">
         <v>83.6</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="15">
         <v>20</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="5:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="18">
         <v>1255.4000000000001</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="19">
         <v>121.19</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="20">
         <v>20</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="8">
         <v>1777</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="9">
         <v>1.405</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="10">
         <v>20</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="13">
         <v>1583</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="14">
         <v>85.587999999999994</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="15">
         <v>20</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="13">
         <v>1579</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="14">
         <v>176.608</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="15">
         <v>20</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="13">
         <v>1575</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="14">
         <v>169.8</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="15">
         <v>20</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="13">
         <v>1578</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="14">
         <v>170.107</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="15">
         <v>20</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="18">
         <v>1562</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="19">
         <v>251.887</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="20">
         <v>20</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="21">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="8">
         <v>2590</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="9">
         <v>1.9</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="10">
         <v>20</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="13">
         <v>2318.6999999999998</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="14">
         <v>167.28290000000001</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="15">
         <v>20</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="13">
         <v>2322</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="14">
         <v>346.69900000000001</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="15">
         <v>20</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="13">
         <v>2312.1</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="14">
         <v>328.10599999999999</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="15">
         <v>20</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="13">
         <v>2320.1</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="14">
         <v>342.99299999999999</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="15">
         <v>20</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="18">
         <v>2300.3000000000002</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="19">
         <v>484.149</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="20">
         <v>20</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="21">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="8">
         <v>2967</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="9">
         <v>2.3010000000000002</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="10">
         <v>50</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="13">
         <v>2756</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="14">
         <v>621.79999999999995</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="15">
         <v>50</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="13">
         <v>2757</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="14">
         <v>1270.99</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="15">
         <v>50</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="13">
         <v>2746</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="14">
         <v>1166.8956000000001</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="15">
         <v>50</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="13">
         <v>2756</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="14">
         <v>1194.0989999999999</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="22">
         <v>50</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="18">
         <v>2752</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="19">
         <v>1713.6880000000001</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="20">
         <v>50</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="8">
         <v>3506</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="9">
         <v>1.704</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="10">
         <v>50</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="13">
         <v>3134</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="14">
         <v>747.59</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="15">
         <v>50</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="13">
         <v>3115</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="14">
         <v>1530.8</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="15">
         <v>50</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="13">
         <v>3123</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="14">
         <v>1466.41</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="15">
         <v>50</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="13">
         <v>3128</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="14">
         <v>1508.8</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H35" s="22">
         <v>50</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="18">
         <v>3114</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="19">
         <v>2194.777</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H36" s="20">
         <v>50</v>
       </c>
-      <c r="I36" s="28">
+      <c r="I36" s="21">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="8">
         <v>4435</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="9">
         <v>4.0019999999999998</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="10">
         <v>50</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="38" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="13">
         <v>3956</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="14">
         <v>2327.1482999999998</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="15">
         <v>50</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="13">
         <v>3935</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="14">
         <v>4675.1629999999996</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39" s="15">
         <v>50</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="13">
         <v>3937</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="14">
         <v>4512.53</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="15">
         <v>50</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="13">
         <v>3950</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="14">
         <v>4636.88</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="22">
         <v>50</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="18">
         <v>3913</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="19">
         <v>6803.9</v>
       </c>
-      <c r="H42" s="27">
+      <c r="H42" s="20">
         <v>50</v>
       </c>
-      <c r="I42" s="28">
+      <c r="I42" s="21">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="8">
         <v>5563</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="9">
         <v>3.1</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="10">
         <v>100</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="13">
         <v>5272</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="14">
         <v>3530.2</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H44" s="15">
         <v>100</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="13">
         <v>5270</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="14">
         <v>7075.23</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H45" s="15">
         <v>100</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="13">
         <v>5267</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="14">
         <v>6550.08</v>
       </c>
-      <c r="H46" s="22">
+      <c r="H46" s="15">
         <v>100</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="13">
         <v>5268</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="14">
         <v>6802.027</v>
       </c>
-      <c r="H47" s="29">
+      <c r="H47" s="22">
         <v>100</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F48" s="18">
         <v>5268</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G48" s="19">
         <v>10161.31</v>
       </c>
-      <c r="H48" s="27">
+      <c r="H48" s="20">
         <v>100</v>
       </c>
-      <c r="I48" s="28">
+      <c r="I48" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="8">
         <v>11632</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="9">
         <v>14.004</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="10">
         <v>200</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I49" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="13">
         <v>10942</v>
       </c>
-      <c r="G50" s="21">
+      <c r="G50" s="14">
         <v>84377</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="15">
         <v>200</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="13">
         <v>10942</v>
       </c>
-      <c r="G51" s="21">
+      <c r="G51" s="14">
         <v>142697.79999999999</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H51" s="15">
         <v>200</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="13">
         <v>10992</v>
       </c>
-      <c r="G52" s="21">
+      <c r="G52" s="14">
         <v>97108</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H52" s="15">
         <v>200</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="13">
         <v>10946</v>
       </c>
-      <c r="G53" s="21">
+      <c r="G53" s="14">
         <v>100799</v>
       </c>
-      <c r="H53" s="29">
+      <c r="H53" s="22">
         <v>200</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="24" t="s">
+      <c r="E54" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="25">
+      <c r="F54" s="18">
         <v>10936</v>
       </c>
-      <c r="G54" s="26">
+      <c r="G54" s="19">
         <v>145707</v>
       </c>
-      <c r="H54" s="27">
+      <c r="H54" s="20">
         <v>200</v>
       </c>
-      <c r="I54" s="28">
+      <c r="I54" s="21">
         <v>5</v>
       </c>
+    </row>
+    <row r="55" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="18">
+        <v>2297</v>
+      </c>
+      <c r="G55" s="19">
+        <v>953.4</v>
+      </c>
+      <c r="H55" s="20">
+        <v>20</v>
+      </c>
+      <c r="I55" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="18">
+        <v>2307</v>
+      </c>
+      <c r="G56" s="19">
+        <v>588.6</v>
+      </c>
+      <c r="H56" s="20">
+        <v>20</v>
+      </c>
+      <c r="I56" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="18">
+        <v>2326</v>
+      </c>
+      <c r="G57" s="19">
+        <v>356.8</v>
+      </c>
+      <c r="H57" s="20">
+        <v>20</v>
+      </c>
+      <c r="I57" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="18">
+        <v>3925</v>
+      </c>
+      <c r="G58" s="19">
+        <v>10703</v>
+      </c>
+      <c r="H58" s="20">
+        <v>50</v>
+      </c>
+      <c r="I58" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="18">
+        <v>4018</v>
+      </c>
+      <c r="G59" s="19">
+        <v>3839</v>
+      </c>
+      <c r="H59" s="20">
+        <v>50</v>
+      </c>
+      <c r="I59" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="18">
+        <v>1556</v>
+      </c>
+      <c r="G60" s="19">
+        <v>1765</v>
+      </c>
+      <c r="H60" s="20">
+        <v>20</v>
+      </c>
+      <c r="I60" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="18">
+        <v>11005</v>
+      </c>
+      <c r="G61" s="19">
+        <v>19008</v>
+      </c>
+      <c r="H61" s="20">
+        <v>200</v>
+      </c>
+      <c r="I61" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="18">
+        <v>10942</v>
+      </c>
+      <c r="G62" s="19">
+        <v>46945</v>
+      </c>
+      <c r="H62" s="20">
+        <v>200</v>
+      </c>
+      <c r="I62" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F7:F12">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5280,7 +5099,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F18">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5294,7 +5113,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F24">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5308,7 +5127,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:F30">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5322,7 +5141,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F36">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5336,7 +5155,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F42">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5350,7 +5169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F48">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5364,7 +5183,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:F54">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5378,7 +5197,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G12">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5392,7 +5211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G18">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5406,7 +5225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G24">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5420,7 +5239,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G30">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5434,7 +5253,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5448,7 +5267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37:G42">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5462,7 +5281,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:G48">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5476,6 +5295,230 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:G54">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3879161C-03D8-4C93-973E-595FAC9F211B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55:F61">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7891F45B-A6D6-4D1D-AE5E-74553B11BE6A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55:G61">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{58E7DE6E-EA1C-4E19-98E8-3D12E9F273E6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56:F57">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1B3E2AA9-39C8-4DA5-A4B7-4511988F5EE7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56:G57">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{488DBB46-6A5C-423F-B1C3-F622461D5154}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BD03F405-424F-4CE7-83BE-E3D6DB329D01}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E5945905-9334-443D-994A-6D8C732FC5C2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BA4B1F59-49C7-4F38-91A9-81468C61A008}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{966E745F-CF07-40FC-87E3-447836D94594}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6C7959B4-6974-4564-9524-19BA5CDADE77}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G60">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F2740FFE-51C0-4FF1-8114-C5340074B262}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E2F78212-34A2-4C1A-8BC6-B2A49D1FF491}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G61">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F294BA35-9FB5-43A3-9409-487D26B5E94E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B4185349-29B2-44D0-98E4-8C0EDFB3B5CB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CD4A9BBC-CBF8-432F-BFDC-4D4D6A8BF7EF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DB5863A2-84D4-46D1-8620-8A9DED7CC691}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -5484,7 +5527,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3879161C-03D8-4C93-973E-595FAC9F211B}</x14:id>
+          <x14:id>{CE98F88F-8DF0-49D7-90FE-1B5B1A278624}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5686,8 +5729,337 @@
           </x14:cfRule>
           <xm:sqref>G49:G54</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7891F45B-A6D6-4D1D-AE5E-74553B11BE6A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F55:F61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{58E7DE6E-EA1C-4E19-98E8-3D12E9F273E6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G55:G61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1B3E2AA9-39C8-4DA5-A4B7-4511988F5EE7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F56:F57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{488DBB46-6A5C-423F-B1C3-F622461D5154}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G56:G57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BD03F405-424F-4CE7-83BE-E3D6DB329D01}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E5945905-9334-443D-994A-6D8C732FC5C2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BA4B1F59-49C7-4F38-91A9-81468C61A008}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{966E745F-CF07-40FC-87E3-447836D94594}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6C7959B4-6974-4564-9524-19BA5CDADE77}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F2740FFE-51C0-4FF1-8114-C5340074B262}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E2F78212-34A2-4C1A-8BC6-B2A49D1FF491}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F294BA35-9FB5-43A3-9409-487D26B5E94E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B4185349-29B2-44D0-98E4-8C0EDFB3B5CB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CD4A9BBC-CBF8-432F-BFDC-4D4D6A8BF7EF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DB5863A2-84D4-46D1-8620-8A9DED7CC691}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CE98F88F-8DF0-49D7-90FE-1B5B1A278624}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G62</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7376BE-C64E-4BF5-9D33-B914886586CB}">
+  <dimension ref="B1:C21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="35"/>
+      <c r="C3" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="35"/>
+      <c r="C4" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="36"/>
+      <c r="C5" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B7" s="36"/>
+      <c r="C7" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B9" s="35"/>
+      <c r="C9" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="36"/>
+      <c r="C10" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/flowshop_problem/stats/algorithms_stats.xlsx
+++ b/flowshop_problem/stats/algorithms_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikuba\PycharmProjects\SPD\flowshop_problem\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E19365-172E-4431-A63E-E560741A9569}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B364300A-7EB9-4F33-87B7-09F73420190F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CB874C67-1AA7-491E-8DC2-147ABB7F12DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CB874C67-1AA7-491E-8DC2-147ABB7F12DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Podsumowanie" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
   <si>
     <t>Algorytm</t>
   </si>
@@ -131,13 +131,97 @@
     <t>kryterium stopu</t>
   </si>
   <si>
-    <t>liczba iteracji - opisana wyżej</t>
-  </si>
-  <si>
     <t>Gdy przyjmiemy czas potrzebny na policzenia NEHa przy dużej liczbie zadań, wtedy otrzymujemy lepsze wyniki w algorytmie metaheurystycznym</t>
   </si>
   <si>
-    <t>Czas trwania algorytmu - np. algorytm ma zakończyć pracę po 10 sekundach - to kryterium może sprawdzać się dla bardzo dużej liczby zadań, gdzie potrzebujemy jakieś rozwiązanie, a nie możemy liczyć w nieskończoność</t>
+    <t>Może się zdarzyć że minima będą daleko od siebie oddalone i za mała liczba iteracji doprowadzi do tego że nie zdążymy dojść do następnego minimum bo iteracja już zostanie przerwana</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>liczba iteracji -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> opisana wyżej</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Czas trwania algorytmu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- np. algorytm ma zakończyć pracę po 10 sekundach - to kryterium może sprawdzać się dla bardzo dużej liczby zadań, gdzie potrzebujemy jakieś rozwiązanie, a nie możemy liczyć w nieskończoność</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Liczba iteracji bez znalezenia lepszego rozwiązania </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - wybór liczby doświadczalny i przy algorytmie który nie jest deterministyczny można otrzymać różne wyniki</t>
+    </r>
+  </si>
+  <si>
+    <t>generowanie dużego/małego sąsiedztwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Można generować mniejsze sąsiedztwo - np. tylko wybraną liczbę sąsiadów, jednak nie zauważyłem poprawy wyników </t>
+  </si>
+  <si>
+    <t>porównanie z NEH</t>
+  </si>
+  <si>
+    <t>jak damy dużą liczbę iteracji to otrzymamy lepsze wyniki od NEHa, jeśli dla dużej liczby zadań damy taki sam czas trwania jak czas trwania NEHa to też mamy lepsze wyniki, bo NEH ugrzązł w lokalnym minimum, a nasz algorytm miał dużo czasu żeby przelecieć po wielu rozwiązaniach</t>
   </si>
 </sst>
 </file>
@@ -487,7 +571,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -595,550 +679,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Dane wyjściowe" xfId="1" builtinId="21"/>
     <cellStyle name="Komórka zaznaczona" xfId="2" builtinId="23"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="92">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <alignment wrapText="1"/>
     </dxf>
@@ -1944,9 +1497,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Podsumowanie!$A$5:$A$11</c:f>
+              <c:f>Podsumowanie!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Johnson N maszynowy</c:v>
                 </c:pt>
@@ -1966,37 +1519,43 @@
                   <c:v>NEH rozszerzony 4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>tabu search 200 iteracji, zmodyfikowany random swap + johnson na start</c:v>
+                  <c:v>tabu search 80 iteracji, zmodyfikowany random swap + johnson na start</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>tabu search 30 iteracji, zmodyfikowany random swap + johnson na start</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Podsumowanie!$B$5:$B$11</c:f>
+              <c:f>Podsumowanie!$B$5:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.405</c:v>
+                  <c:v>4.0019999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.587999999999994</c:v>
+                  <c:v>2327.1482999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176.608</c:v>
+                  <c:v>4675.1629999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>169.8</c:v>
+                  <c:v>4512.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>170.107</c:v>
+                  <c:v>4636.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>251.887</c:v>
+                  <c:v>6803.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1765</c:v>
+                  <c:v>10703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,9 +1592,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Podsumowanie!$A$5:$A$11</c:f>
+              <c:f>Podsumowanie!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Johnson N maszynowy</c:v>
                 </c:pt>
@@ -2055,37 +1614,43 @@
                   <c:v>NEH rozszerzony 4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>tabu search 200 iteracji, zmodyfikowany random swap + johnson na start</c:v>
+                  <c:v>tabu search 80 iteracji, zmodyfikowany random swap + johnson na start</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>tabu search 30 iteracji, zmodyfikowany random swap + johnson na start</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Podsumowanie!$C$5:$C$11</c:f>
+              <c:f>Podsumowanie!$C$5:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1777</c:v>
+                  <c:v>4435</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1583</c:v>
+                  <c:v>3956</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1579</c:v>
+                  <c:v>3935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1575</c:v>
+                  <c:v>3937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1578</c:v>
+                  <c:v>3950</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1562</c:v>
+                  <c:v>3913</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1556</c:v>
+                  <c:v>3925</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3347,7 +2912,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FF3F0DB-C94A-4912-8435-A3E0BD722A82}" name="Tabela przestawna1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Algorytm  ">
-  <location ref="A4:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <location ref="A4:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
       <items count="14">
@@ -3392,7 +2957,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -3412,7 +2977,10 @@
       <x v="5"/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -3427,98 +2995,98 @@
     </i>
   </colItems>
   <pageFields count="2">
-    <pageField fld="3" item="0" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
+    <pageField fld="3" item="1" hier="-1"/>
+    <pageField fld="4" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Suma z t [ms]" fld="2" baseField="0" baseItem="0"/>
     <dataField name="Suma z Cmax  [średnia]" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="23">
-    <format dxfId="91">
+    <format dxfId="22">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="20">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="18">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="16">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="12">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="10">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="8">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="6">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="4">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="2">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="7">
@@ -3533,7 +3101,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -3876,7 +3444,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3894,7 +3462,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="24">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C1" s="25"/>
     </row>
@@ -3903,7 +3471,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="24">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" s="25"/>
     </row>
@@ -3932,10 +3500,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="29">
-        <v>1.405</v>
+        <v>4.0019999999999998</v>
       </c>
       <c r="C5" s="29">
-        <v>1777</v>
+        <v>4435</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -3947,10 +3515,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="29">
-        <v>85.587999999999994</v>
+        <v>2327.1482999999998</v>
       </c>
       <c r="C6" s="29">
-        <v>1583</v>
+        <v>3956</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -3962,10 +3530,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="29">
-        <v>176.608</v>
+        <v>4675.1629999999996</v>
       </c>
       <c r="C7" s="29">
-        <v>1579</v>
+        <v>3935</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -3977,10 +3545,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="29">
-        <v>169.8</v>
+        <v>4512.53</v>
       </c>
       <c r="C8" s="29">
-        <v>1575</v>
+        <v>3937</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -3992,10 +3560,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="29">
-        <v>170.107</v>
+        <v>4636.88</v>
       </c>
       <c r="C9" s="29">
-        <v>1578</v>
+        <v>3950</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -4007,35 +3575,41 @@
         <v>7</v>
       </c>
       <c r="B10" s="29">
-        <v>251.887</v>
+        <v>6803.9</v>
       </c>
       <c r="C10" s="29">
-        <v>1562</v>
+        <v>3913</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B11" s="29">
-        <v>1765</v>
+        <v>10703</v>
       </c>
       <c r="C11" s="29">
-        <v>1556</v>
+        <v>3925</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="29">
+        <v>3839</v>
+      </c>
+      <c r="C12" s="29">
+        <v>4018</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13"/>
@@ -4083,8 +3657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929F22A8-E983-4847-84A3-FE2FC09A0A6D}">
   <dimension ref="E4:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C48" workbookViewId="0">
-      <selection activeCell="P60" sqref="P60"/>
+    <sheetView topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58:G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5078,7 +4652,7 @@
       </c>
     </row>
     <row r="63" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F63"/>
+      <c r="F63" s="37"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
@@ -5308,7 +4882,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55:F61">
+  <conditionalFormatting sqref="F55:F61 F63">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -5448,7 +5022,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
+  <conditionalFormatting sqref="F61 F63">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -5738,7 +5312,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F55:F61</xm:sqref>
+          <xm:sqref>F55:F61 F63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{58E7DE6E-EA1C-4E19-98E8-3D12E9F273E6}">
@@ -5858,7 +5432,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F61</xm:sqref>
+          <xm:sqref>F61 F63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F294BA35-9FB5-43A3-9409-487D26B5E94E}">
@@ -5931,8 +5505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7376BE-C64E-4BF5-9D33-B914886586CB}">
   <dimension ref="B1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -5994,36 +5568,48 @@
         <v>29</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="35"/>
       <c r="C9" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="36"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="35"/>
+      <c r="C11" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="36"/>
+      <c r="C12" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+    <row r="13" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="28"/>
@@ -6057,7 +5643,7 @@
   <mergeCells count="3">
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B8:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/flowshop_problem/stats/algorithms_stats.xlsx
+++ b/flowshop_problem/stats/algorithms_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikuba\PycharmProjects\SPD\flowshop_problem\stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B364300A-7EB9-4F33-87B7-09F73420190F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9911FC9-491F-45E0-8BB7-3690EB1A8BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CB874C67-1AA7-491E-8DC2-147ABB7F12DF}"/>
+    <workbookView xWindow="18720" yWindow="5070" windowWidth="28800" windowHeight="10755" activeTab="2" xr2:uid="{CB874C67-1AA7-491E-8DC2-147ABB7F12DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Podsumowanie" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
   <si>
     <t>Algorytm</t>
   </si>
@@ -212,16 +211,64 @@
     </r>
   </si>
   <si>
-    <t>generowanie dużego/małego sąsiedztwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Można generować mniejsze sąsiedztwo - np. tylko wybraną liczbę sąsiadów, jednak nie zauważyłem poprawy wyników </t>
-  </si>
-  <si>
     <t>porównanie z NEH</t>
   </si>
   <si>
     <t>jak damy dużą liczbę iteracji to otrzymamy lepsze wyniki od NEHa, jeśli dla dużej liczby zadań damy taki sam czas trwania jak czas trwania NEHa to też mamy lepsze wyniki, bo NEH ugrzązł w lokalnym minimum, a nasz algorytm miał dużo czasu żeby przelecieć po wielu rozwiązaniach</t>
+  </si>
+  <si>
+    <t>tabu search 50 iteracji, wszyscy sasiedzi insert+johnson na start</t>
+  </si>
+  <si>
+    <t>tabu search 50 iteracji, wszyscy sasiedzi swap+johnson na start</t>
+  </si>
+  <si>
+    <t>tabu search 20 iteracji, wszyscy sasiedzi insert+johnson na start</t>
+  </si>
+  <si>
+    <t>tabu search 20 iteracji, wszyscy sasiedzi swap+johnson na start</t>
+  </si>
+  <si>
+    <t>tabu search 30 iteracji, wszyscy sasiedzi swap+johnson na start</t>
+  </si>
+  <si>
+    <t>tabu search 30 iteracji, wszyscy sasiedzi insert+johnson na start</t>
+  </si>
+  <si>
+    <t>tabu search 80 iteracji, zmodyfikowany random insert+ johnson na start</t>
+  </si>
+  <si>
+    <t>tabu search 50 iteracji, zmodyfikowany random insert + johnson na start</t>
+  </si>
+  <si>
+    <t>tabu search 20 iteracji, zmodyfikowany random insert + johnson na start</t>
+  </si>
+  <si>
+    <t>tabu search 80 iteracji, zmodyfikowany random insert + johnson na start</t>
+  </si>
+  <si>
+    <t>tabu search 30 iteracji, zmodyfikowany random insert + johnson na start</t>
+  </si>
+  <si>
+    <t>tabu search 200 iteracji, zmodyfikowany random insert + johnson na start</t>
+  </si>
+  <si>
+    <t>generowanie wszystkich sąsiedztw/wybranej liczby sąsiedztw</t>
+  </si>
+  <si>
+    <t>W przypadku generowania wszystkich możliwych sąsiadach w ramach danego ruchu otrzymany Cmax jest lepszy, jednak czas jest duzo gorszy. Zysk otrzymywany z polepszenia Cmax nie jest oplacalny względem faktu o ile zwieksza się czas wykonywania</t>
+  </si>
+  <si>
+    <t>swap vs insert</t>
+  </si>
+  <si>
+    <t>W przypadku generowania wszystkich możliwych sasiadow ruch typu insert daje lepsze Cmax jednak czas jest około 2 razy dluzszy niż w przypadku ruchu typu swap</t>
+  </si>
+  <si>
+    <t>W przypadku generowania losowych sąsiadów w podobnej ilości otrzymywane Cmax i czasy są dla obu typow ruchow zblizone do siebie a to które daje lepszy wynik albo lepszy czas jest czysto losowe</t>
+  </si>
+  <si>
+    <t>Podsumowujac niezaleznie od tego czy ruchem będzie swap i insert lepsze wyniki i gorszy czas daje ten ruch, dla którego generujemy wieksza liczbe sasiadow. W przypadku generowania wszystkich możliwych sasiadow ruch typu insert generuje wiecej takich sasiadow niz ruch typu swap wiec analogicznie daje lepsze Cmax ale gorszy czas</t>
   </si>
 </sst>
 </file>
@@ -670,6 +717,12 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -677,12 +730,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -898,7 +945,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[algorithms_stats.xlsx]Podsumowanie!Tabela przestawna1</c:name>
+    <c:name>[algorithms_stats (1).xlsx]Podsumowanie!Tabela przestawna1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -946,7 +993,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1002,7 +1049,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1058,7 +1105,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1114,7 +1161,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1170,7 +1217,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1226,7 +1273,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1282,7 +1329,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1338,7 +1385,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1394,7 +1441,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1450,7 +1497,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1497,9 +1544,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Podsumowanie!$A$5:$A$12</c:f>
+              <c:f>Podsumowanie!$A$5:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Johnson N maszynowy</c:v>
                 </c:pt>
@@ -1522,40 +1569,46 @@
                   <c:v>tabu search 80 iteracji, zmodyfikowany random swap + johnson na start</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>tabu search 30 iteracji, zmodyfikowany random swap + johnson na start</c:v>
+                  <c:v>tabu search 50 iteracji, zmodyfikowany random swap + johnson na start</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>tabu search 20 iteracji, zmodyfikowany random swap + johnson na start</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Podsumowanie!$B$5:$B$12</c:f>
+              <c:f>Podsumowanie!$B$5:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.0019999999999998</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2327.1482999999998</c:v>
+                  <c:v>167.28290000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4675.1629999999996</c:v>
+                  <c:v>346.69900000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4512.53</c:v>
+                  <c:v>328.10599999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4636.88</c:v>
+                  <c:v>342.99299999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6803.9</c:v>
+                  <c:v>484.149</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10703</c:v>
+                  <c:v>953.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3839</c:v>
+                  <c:v>588.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>356.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1592,9 +1645,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Podsumowanie!$A$5:$A$12</c:f>
+              <c:f>Podsumowanie!$A$5:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Johnson N maszynowy</c:v>
                 </c:pt>
@@ -1617,40 +1670,46 @@
                   <c:v>tabu search 80 iteracji, zmodyfikowany random swap + johnson na start</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>tabu search 30 iteracji, zmodyfikowany random swap + johnson na start</c:v>
+                  <c:v>tabu search 50 iteracji, zmodyfikowany random swap + johnson na start</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>tabu search 20 iteracji, zmodyfikowany random swap + johnson na start</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Podsumowanie!$C$5:$C$12</c:f>
+              <c:f>Podsumowanie!$C$5:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4435</c:v>
+                  <c:v>2590</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3956</c:v>
+                  <c:v>2318.6999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3935</c:v>
+                  <c:v>2322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3937</c:v>
+                  <c:v>2312.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3950</c:v>
+                  <c:v>2320.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3913</c:v>
+                  <c:v>2300.3000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3925</c:v>
+                  <c:v>2297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4018</c:v>
+                  <c:v>2307</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1714,7 +1773,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1575943359"/>
@@ -1773,7 +1832,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1575943775"/>
@@ -1815,7 +1874,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1852,7 +1911,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2468,7 +2527,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kuba Kędzierski" refreshedDate="44300.693982638892" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="55" xr:uid="{11B2C4DB-0C22-45FA-8AB2-B400B190B13A}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="E6:I214" sheet="Dane"/>
+    <worksheetSource ref="E6:I227" sheet="Dane"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Algorytm" numFmtId="0">
@@ -2911,8 +2970,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FF3F0DB-C94A-4912-8435-A3E0BD722A82}" name="Tabela przestawna1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Algorytm  ">
-  <location ref="A4:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FF3F0DB-C94A-4912-8435-A3E0BD722A82}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Algorytm  ">
+  <location ref="A4:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
       <items count="14">
@@ -2957,7 +3016,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
     <i>
       <x/>
     </i>
@@ -2980,7 +3039,10 @@
       <x v="8"/>
     </i>
     <i>
-      <x v="11"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -2995,7 +3057,7 @@
     </i>
   </colItems>
   <pageFields count="2">
-    <pageField fld="3" item="1" hier="-1"/>
+    <pageField fld="3" item="0" hier="-1"/>
     <pageField fld="4" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="2">
@@ -3444,7 +3506,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3462,7 +3524,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="24">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C1" s="25"/>
     </row>
@@ -3500,10 +3562,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="29">
-        <v>4.0019999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="C5" s="29">
-        <v>4435</v>
+        <v>2590</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -3515,10 +3577,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="29">
-        <v>2327.1482999999998</v>
+        <v>167.28290000000001</v>
       </c>
       <c r="C6" s="29">
-        <v>3956</v>
+        <v>2318.6999999999998</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -3530,10 +3592,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="29">
-        <v>4675.1629999999996</v>
+        <v>346.69900000000001</v>
       </c>
       <c r="C7" s="29">
-        <v>3935</v>
+        <v>2322</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -3545,10 +3607,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="29">
-        <v>4512.53</v>
+        <v>328.10599999999999</v>
       </c>
       <c r="C8" s="29">
-        <v>3937</v>
+        <v>2312.1</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -3560,10 +3622,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="29">
-        <v>4636.88</v>
+        <v>342.99299999999999</v>
       </c>
       <c r="C9" s="29">
-        <v>3950</v>
+        <v>2320.1</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -3575,10 +3637,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="29">
-        <v>6803.9</v>
+        <v>484.149</v>
       </c>
       <c r="C10" s="29">
-        <v>3913</v>
+        <v>2300.3000000000002</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -3590,10 +3652,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="29">
-        <v>10703</v>
+        <v>953.4</v>
       </c>
       <c r="C11" s="29">
-        <v>3925</v>
+        <v>2297</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -3602,19 +3664,25 @@
     </row>
     <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B12" s="29">
-        <v>3839</v>
+        <v>588.6</v>
       </c>
       <c r="C12" s="29">
-        <v>4018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="29">
+        <v>356.8</v>
+      </c>
+      <c r="C13" s="29">
+        <v>2326</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
@@ -3655,10 +3723,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929F22A8-E983-4847-84A3-FE2FC09A0A6D}">
-  <dimension ref="E4:I63"/>
+  <dimension ref="E4:I76"/>
   <sheetViews>
-    <sheetView topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58:G58"/>
+    <sheetView topLeftCell="C56" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4534,13 +4602,13 @@
     </row>
     <row r="56" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E56" s="17" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F56" s="18">
-        <v>2307</v>
+        <v>2287</v>
       </c>
       <c r="G56" s="19">
-        <v>588.6</v>
+        <v>1161.8</v>
       </c>
       <c r="H56" s="20">
         <v>20</v>
@@ -4551,13 +4619,13 @@
     </row>
     <row r="57" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E57" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F57" s="18">
-        <v>2326</v>
+        <v>2307</v>
       </c>
       <c r="G57" s="19">
-        <v>356.8</v>
+        <v>588.6</v>
       </c>
       <c r="H57" s="20">
         <v>20</v>
@@ -4568,16 +4636,16 @@
     </row>
     <row r="58" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E58" s="17" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F58" s="18">
-        <v>3925</v>
+        <v>2298</v>
       </c>
       <c r="G58" s="19">
-        <v>10703</v>
+        <v>711.9</v>
       </c>
       <c r="H58" s="20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I58" s="21">
         <v>20</v>
@@ -4585,16 +4653,16 @@
     </row>
     <row r="59" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E59" s="17" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F59" s="18">
-        <v>4018</v>
+        <v>2290</v>
       </c>
       <c r="G59" s="19">
-        <v>3839</v>
+        <v>6766.5</v>
       </c>
       <c r="H59" s="20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I59" s="21">
         <v>20</v>
@@ -4602,60 +4670,281 @@
     </row>
     <row r="60" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E60" s="17" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F60" s="18">
-        <v>1556</v>
+        <v>2264</v>
       </c>
       <c r="G60" s="19">
-        <v>1765</v>
+        <v>13266</v>
       </c>
       <c r="H60" s="20">
         <v>20</v>
       </c>
       <c r="I60" s="21">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E61" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="18">
+        <v>2326</v>
+      </c>
+      <c r="G61" s="19">
+        <v>356.8</v>
+      </c>
+      <c r="H61" s="20">
+        <v>20</v>
+      </c>
+      <c r="I61" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" s="18">
+        <v>2337</v>
+      </c>
+      <c r="G62" s="19">
+        <v>288</v>
+      </c>
+      <c r="H62" s="20">
+        <v>20</v>
+      </c>
+      <c r="I62" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="18">
+        <v>2300</v>
+      </c>
+      <c r="G63" s="19">
+        <v>2733</v>
+      </c>
+      <c r="H63" s="20">
+        <v>20</v>
+      </c>
+      <c r="I63" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" s="18">
+        <v>2270</v>
+      </c>
+      <c r="G64" s="19">
+        <v>5252</v>
+      </c>
+      <c r="H64" s="20">
+        <v>20</v>
+      </c>
+      <c r="I64" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="18">
+        <v>3940</v>
+      </c>
+      <c r="G65" s="19">
+        <v>7002</v>
+      </c>
+      <c r="H65" s="20">
+        <v>50</v>
+      </c>
+      <c r="I65" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" s="18">
+        <v>3908</v>
+      </c>
+      <c r="G66" s="19">
+        <v>6942</v>
+      </c>
+      <c r="H66" s="20">
+        <v>50</v>
+      </c>
+      <c r="I66" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="18">
-        <v>11005</v>
-      </c>
-      <c r="G61" s="19">
-        <v>19008</v>
-      </c>
-      <c r="H61" s="20">
+      <c r="F67" s="18">
+        <v>3994</v>
+      </c>
+      <c r="G67" s="19">
+        <v>2641</v>
+      </c>
+      <c r="H67" s="20">
+        <v>50</v>
+      </c>
+      <c r="I67" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="18">
+        <v>3988</v>
+      </c>
+      <c r="G68" s="19">
+        <v>2705</v>
+      </c>
+      <c r="H68" s="20">
+        <v>50</v>
+      </c>
+      <c r="I68" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="18">
+        <v>3930</v>
+      </c>
+      <c r="G69" s="19">
+        <v>66627</v>
+      </c>
+      <c r="H69" s="20">
+        <v>50</v>
+      </c>
+      <c r="I69" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70" s="18">
+        <v>3870</v>
+      </c>
+      <c r="G70" s="19">
+        <v>129509</v>
+      </c>
+      <c r="H70" s="20">
+        <v>50</v>
+      </c>
+      <c r="I70" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="18">
+        <v>1556</v>
+      </c>
+      <c r="G71" s="19">
+        <v>1370</v>
+      </c>
+      <c r="H71" s="20">
+        <v>20</v>
+      </c>
+      <c r="I71" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="18">
+        <v>1543</v>
+      </c>
+      <c r="G72" s="19">
+        <v>1507</v>
+      </c>
+      <c r="H72" s="20">
+        <v>20</v>
+      </c>
+      <c r="I72" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="18">
+        <v>10887</v>
+      </c>
+      <c r="G73" s="19">
+        <v>21525</v>
+      </c>
+      <c r="H73" s="20">
         <v>200</v>
       </c>
-      <c r="I61" s="21">
+      <c r="I73" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="17" t="s">
+    <row r="74" spans="5:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74" s="18">
+        <v>10878</v>
+      </c>
+      <c r="G74" s="19">
+        <v>22218</v>
+      </c>
+      <c r="H74" s="20">
+        <v>200</v>
+      </c>
+      <c r="I74" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F75" s="18">
         <v>10942</v>
       </c>
-      <c r="G62" s="19">
+      <c r="G75" s="19">
         <v>46945</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H75" s="20">
         <v>200</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I75" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F63" s="37"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
+    <row r="76" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F76" s="34"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F7:F12">
@@ -4882,35 +5171,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55:F61 F63">
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7891F45B-A6D6-4D1D-AE5E-74553B11BE6A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G55:G61">
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58E7DE6E-EA1C-4E19-98E8-3D12E9F273E6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56:F57">
+  <conditionalFormatting sqref="F61:F64 F57:F58">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
@@ -4924,7 +5185,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56:G57">
+  <conditionalFormatting sqref="G61:G64 G57:G58">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
@@ -4938,7 +5199,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
+  <conditionalFormatting sqref="F65:F66">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -4952,7 +5213,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
+  <conditionalFormatting sqref="G65:G66">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -4966,7 +5227,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
+  <conditionalFormatting sqref="F67:F70">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -4980,7 +5241,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59">
+  <conditionalFormatting sqref="G67:G70">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -4994,7 +5255,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
+  <conditionalFormatting sqref="F71:F72">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -5008,7 +5269,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G60">
+  <conditionalFormatting sqref="G71:G72">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -5022,7 +5283,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F61 F63">
+  <conditionalFormatting sqref="F59:F60 F76 F73:F74">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -5036,21 +5297,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G61">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F294BA35-9FB5-43A3-9409-487D26B5E94E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
+  <conditionalFormatting sqref="F75">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -5064,7 +5311,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62">
+  <conditionalFormatting sqref="G75">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -5078,7 +5325,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
+  <conditionalFormatting sqref="F75">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -5092,7 +5339,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62">
+  <conditionalFormatting sqref="G75">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -5102,6 +5349,48 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{CE98F88F-8DF0-49D7-90FE-1B5B1A278624}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55:F74 F76">
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7891F45B-A6D6-4D1D-AE5E-74553B11BE6A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59:G60 G73:G74">
+    <cfRule type="dataBar" priority="47">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F294BA35-9FB5-43A3-9409-487D26B5E94E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55:G74">
+    <cfRule type="dataBar" priority="49">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{58E7DE6E-EA1C-4E19-98E8-3D12E9F273E6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5304,6 +5593,161 @@
           <xm:sqref>G49:G54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1B3E2AA9-39C8-4DA5-A4B7-4511988F5EE7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F61:F64 F57:F58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{488DBB46-6A5C-423F-B1C3-F622461D5154}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G61:G64 G57:G58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BD03F405-424F-4CE7-83BE-E3D6DB329D01}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F65:F66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E5945905-9334-443D-994A-6D8C732FC5C2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G65:G66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BA4B1F59-49C7-4F38-91A9-81468C61A008}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F67:F70</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{966E745F-CF07-40FC-87E3-447836D94594}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G67:G70</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6C7959B4-6974-4564-9524-19BA5CDADE77}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F71:F72</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F2740FFE-51C0-4FF1-8114-C5340074B262}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G71:G72</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E2F78212-34A2-4C1A-8BC6-B2A49D1FF491}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F59:F60 F76 F73:F74</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B4185349-29B2-44D0-98E4-8C0EDFB3B5CB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F75</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CD4A9BBC-CBF8-432F-BFDC-4D4D6A8BF7EF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G75</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DB5863A2-84D4-46D1-8620-8A9DED7CC691}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F75</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CE98F88F-8DF0-49D7-90FE-1B5B1A278624}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G75</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7891F45B-A6D6-4D1D-AE5E-74553B11BE6A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -5312,7 +5756,20 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F55:F61 F63</xm:sqref>
+          <xm:sqref>F55:F74 F76</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F294BA35-9FB5-43A3-9409-487D26B5E94E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G59:G60 G73:G74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{58E7DE6E-EA1C-4E19-98E8-3D12E9F273E6}">
@@ -5325,175 +5782,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G55:G61</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1B3E2AA9-39C8-4DA5-A4B7-4511988F5EE7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F56:F57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{488DBB46-6A5C-423F-B1C3-F622461D5154}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G56:G57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BD03F405-424F-4CE7-83BE-E3D6DB329D01}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E5945905-9334-443D-994A-6D8C732FC5C2}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BA4B1F59-49C7-4F38-91A9-81468C61A008}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F59</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{966E745F-CF07-40FC-87E3-447836D94594}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G59</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6C7959B4-6974-4564-9524-19BA5CDADE77}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F2740FFE-51C0-4FF1-8114-C5340074B262}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E2F78212-34A2-4C1A-8BC6-B2A49D1FF491}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F61 F63</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F294BA35-9FB5-43A3-9409-487D26B5E94E}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G61</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B4185349-29B2-44D0-98E4-8C0EDFB3B5CB}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F62</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CD4A9BBC-CBF8-432F-BFDC-4D4D6A8BF7EF}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G62</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DB5863A2-84D4-46D1-8620-8A9DED7CC691}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F62</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CE98F88F-8DF0-49D7-90FE-1B5B1A278624}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G62</xm:sqref>
+          <xm:sqref>G55:G74</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5506,7 +5795,7 @@
   <dimension ref="B1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -5524,7 +5813,7 @@
       </c>
     </row>
     <row r="2" spans="2:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -5532,25 +5821,25 @@
       </c>
     </row>
     <row r="3" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="35"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -5558,13 +5847,13 @@
       </c>
     </row>
     <row r="7" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="36" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -5572,56 +5861,64 @@
       </c>
     </row>
     <row r="9" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="28" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="36"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
+    <row r="13" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B13" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C14" s="28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+    <row r="15" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B16" s="37"/>
+      <c r="C16" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="38"/>
+      <c r="C17" s="28" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="28"/>
@@ -5640,10 +5937,11 @@
       <c r="C21" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B15:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/flowshop_problem/stats/algorithms_stats.xlsx
+++ b/flowshop_problem/stats/algorithms_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikuba\PycharmProjects\SPD\flowshop_problem\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9911FC9-491F-45E0-8BB7-3690EB1A8BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A66370E-1618-48C0-82E0-2BF2631DC9D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18720" yWindow="5070" windowWidth="28800" windowHeight="10755" activeTab="2" xr2:uid="{CB874C67-1AA7-491E-8DC2-147ABB7F12DF}"/>
+    <workbookView xWindow="14670" yWindow="870" windowWidth="21600" windowHeight="11385" xr2:uid="{CB874C67-1AA7-491E-8DC2-147ABB7F12DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Podsumowanie" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="10" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="55">
   <si>
     <t>Algorytm</t>
   </si>
@@ -738,21 +738,30 @@
     <cellStyle name="Komórka zaznaczona" xfId="2" builtinId="23"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
+  <dxfs count="184">
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <border>
@@ -765,6 +774,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -784,44 +796,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -861,6 +838,121 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -895,6 +987,129 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
@@ -907,6 +1122,161 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -917,6 +1287,889 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -945,7 +2198,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[algorithms_stats (1).xlsx]Podsumowanie!Tabela przestawna1</c:name>
+    <c:name>[algorithms_stats.xlsx]Podsumowanie!Tabela przestawna1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -993,7 +2246,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1049,7 +2302,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1105,7 +2358,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1161,7 +2414,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1217,7 +2470,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1273,7 +2526,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1329,7 +2582,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1385,7 +2638,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1441,7 +2694,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1497,7 +2750,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1527,7 +2780,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma z t [ms]</c:v>
+                  <c:v>Suma z Cmax  [średnia]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1544,71 +2797,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Podsumowanie!$A$5:$A$13</c:f>
+              <c:f>Podsumowanie!$A$5:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Johnson N maszynowy</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>NEH</c:v>
+                  <c:v>tabu search 30 iteracji, zmodyfikowany random swap + johnson na start</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>NEH rozszerzony 1</c:v>
+                  <c:v>tabu search 30 iteracji, zmodyfikowany random insert + johnson na start</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NEH rozszerzony 2</c:v>
+                  <c:v>NEH</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>NEH rozszerzony 3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>tabu search 80 iteracji, zmodyfikowany random swap + johnson na start</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NEH rozszerzony 2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>NEH rozszerzony 1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>tabu search 30 iteracji, wszyscy sasiedzi swap+johnson na start</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>NEH rozszerzony 4</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>tabu search 80 iteracji, zmodyfikowany random swap + johnson na start</c:v>
+                <c:pt idx="10">
+                  <c:v>tabu search 80 iteracji, zmodyfikowany random insert + johnson na start</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>tabu search 50 iteracji, zmodyfikowany random swap + johnson na start</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>tabu search 20 iteracji, zmodyfikowany random swap + johnson na start</c:v>
+                <c:pt idx="11">
+                  <c:v>tabu search 30 iteracji, wszyscy sasiedzi insert+johnson na start</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Podsumowanie!$B$5:$B$13</c:f>
+              <c:f>Podsumowanie!$B$5:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.9</c:v>
+                  <c:v>4435</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167.28290000000001</c:v>
+                  <c:v>3994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>346.69900000000001</c:v>
+                  <c:v>3988</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>328.10599999999999</c:v>
+                  <c:v>3956</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>342.99299999999999</c:v>
+                  <c:v>3950</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>484.149</c:v>
+                  <c:v>3940</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>953.4</c:v>
+                  <c:v>3937</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>588.6</c:v>
+                  <c:v>3935</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>356.8</c:v>
+                  <c:v>3930</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3908</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3870</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1628,7 +2899,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma z Cmax  [średnia]</c:v>
+                  <c:v>Suma z t [ms]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1645,71 +2916,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Podsumowanie!$A$5:$A$13</c:f>
+              <c:f>Podsumowanie!$A$5:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Johnson N maszynowy</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>NEH</c:v>
+                  <c:v>tabu search 30 iteracji, zmodyfikowany random swap + johnson na start</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>NEH rozszerzony 1</c:v>
+                  <c:v>tabu search 30 iteracji, zmodyfikowany random insert + johnson na start</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NEH rozszerzony 2</c:v>
+                  <c:v>NEH</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>NEH rozszerzony 3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>tabu search 80 iteracji, zmodyfikowany random swap + johnson na start</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NEH rozszerzony 2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>NEH rozszerzony 1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>tabu search 30 iteracji, wszyscy sasiedzi swap+johnson na start</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>NEH rozszerzony 4</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>tabu search 80 iteracji, zmodyfikowany random swap + johnson na start</c:v>
+                <c:pt idx="10">
+                  <c:v>tabu search 80 iteracji, zmodyfikowany random insert + johnson na start</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>tabu search 50 iteracji, zmodyfikowany random swap + johnson na start</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>tabu search 20 iteracji, zmodyfikowany random swap + johnson na start</c:v>
+                <c:pt idx="11">
+                  <c:v>tabu search 30 iteracji, wszyscy sasiedzi insert+johnson na start</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Podsumowanie!$C$5:$C$13</c:f>
+              <c:f>Podsumowanie!$C$5:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2590</c:v>
+                  <c:v>4.0019999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2318.6999999999998</c:v>
+                  <c:v>2641</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2322</c:v>
+                  <c:v>2705</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2312.1</c:v>
+                  <c:v>2327.1482999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2320.1</c:v>
+                  <c:v>4636.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2300.3000000000002</c:v>
+                  <c:v>7002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2297</c:v>
+                  <c:v>4512.53</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2307</c:v>
+                  <c:v>4675.1629999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2326</c:v>
+                  <c:v>66627</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6803.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6942</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>129509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1773,7 +3062,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1575943359"/>
@@ -1832,7 +3121,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1575943775"/>
@@ -1874,7 +3163,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1911,7 +3200,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2525,13 +3814,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kuba Kędzierski" refreshedDate="44300.693982638892" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="55" xr:uid="{11B2C4DB-0C22-45FA-8AB2-B400B190B13A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kuba Kędzierski" refreshedDate="44307.630915624999" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="71" xr:uid="{11B2C4DB-0C22-45FA-8AB2-B400B190B13A}">
   <cacheSource type="worksheet">
     <worksheetSource ref="E6:I227" sheet="Dane"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Algorytm" numFmtId="0">
-      <sharedItems containsBlank="1" count="13">
+      <sharedItems containsBlank="1" count="25">
         <s v="Johnson N maszynowy"/>
         <s v="NEH"/>
         <s v="NEH rozszerzony 1"/>
@@ -2539,10 +3828,22 @@
         <s v="NEH rozszerzony 3"/>
         <s v="NEH rozszerzony 4"/>
         <s v="tabu search 80 iteracji, zmodyfikowany random swap + johnson na start"/>
+        <s v="tabu search 80 iteracji, zmodyfikowany random insert+ johnson na start"/>
         <s v="tabu search 50 iteracji, zmodyfikowany random swap + johnson na start"/>
+        <s v="tabu search 50 iteracji, zmodyfikowany random insert + johnson na start"/>
+        <s v="tabu search 50 iteracji, wszyscy sasiedzi swap+johnson na start"/>
+        <s v="tabu search 50 iteracji, wszyscy sasiedzi insert+johnson na start"/>
         <s v="tabu search 20 iteracji, zmodyfikowany random swap + johnson na start"/>
+        <s v="tabu search 20 iteracji, zmodyfikowany random insert + johnson na start"/>
+        <s v="tabu search 20 iteracji, wszyscy sasiedzi swap+johnson na start"/>
+        <s v="tabu search 20 iteracji, wszyscy sasiedzi insert+johnson na start"/>
+        <s v="tabu search 80 iteracji, zmodyfikowany random insert + johnson na start"/>
         <s v="tabu search 30 iteracji, zmodyfikowany random swap + johnson na start"/>
+        <s v="tabu search 30 iteracji, zmodyfikowany random insert + johnson na start"/>
+        <s v="tabu search 30 iteracji, wszyscy sasiedzi swap+johnson na start"/>
+        <s v="tabu search 30 iteracji, wszyscy sasiedzi insert+johnson na start"/>
         <s v="tabu search 200 iteracji, zmodyfikowany random swap + johnson na start"/>
+        <s v="tabu search 200 iteracji, zmodyfikowany random insert + johnson na start"/>
         <m/>
         <s v="tabu search 200 iteracji" u="1"/>
       </sharedItems>
@@ -2580,7 +3881,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="55">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="71">
   <r>
     <x v="0"/>
     <n v="1382.8"/>
@@ -2926,41 +4227,153 @@
   </r>
   <r>
     <x v="7"/>
+    <n v="2287"/>
+    <n v="1161.8"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
     <n v="2307"/>
     <n v="588.6"/>
     <x v="0"/>
     <x v="2"/>
   </r>
   <r>
-    <x v="8"/>
+    <x v="9"/>
+    <n v="2298"/>
+    <n v="711.9"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2290"/>
+    <n v="6766.5"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2264"/>
+    <n v="13266"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="12"/>
     <n v="2326"/>
     <n v="356.8"/>
     <x v="0"/>
     <x v="2"/>
   </r>
   <r>
+    <x v="13"/>
+    <n v="2337"/>
+    <n v="288"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="2300"/>
+    <n v="2733"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="2270"/>
+    <n v="5252"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="6"/>
-    <n v="3925"/>
-    <n v="10703"/>
+    <n v="3940"/>
+    <n v="7002"/>
     <x v="1"/>
     <x v="2"/>
   </r>
   <r>
-    <x v="9"/>
-    <n v="4018"/>
-    <n v="3839"/>
+    <x v="16"/>
+    <n v="3908"/>
+    <n v="6942"/>
     <x v="1"/>
     <x v="2"/>
   </r>
   <r>
-    <x v="10"/>
+    <x v="17"/>
+    <n v="3994"/>
+    <n v="2641"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="3988"/>
+    <n v="2705"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="3930"/>
+    <n v="66627"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="3870"/>
+    <n v="129509"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
     <n v="1556"/>
-    <n v="1765"/>
+    <n v="1370"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <x v="11"/>
+    <x v="22"/>
+    <n v="1543"/>
+    <n v="1507"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="10887"/>
+    <n v="21525"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="10878"/>
+    <n v="22218"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="10942"/>
+    <n v="46945"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="23"/>
     <m/>
     <m/>
     <x v="4"/>
@@ -2970,26 +4383,47 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FF3F0DB-C94A-4912-8435-A3E0BD722A82}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Algorytm  ">
-  <location ref="A4:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FF3F0DB-C94A-4912-8435-A3E0BD722A82}" name="Tabela przestawna1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Algorytm  ">
+  <location ref="A4:C16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="14">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="26">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
-        <item m="1" x="12"/>
-        <item x="11"/>
+        <item m="1" x="24"/>
+        <item x="23"/>
         <item x="6"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="17"/>
+        <item x="21"/>
         <item x="7"/>
-        <item x="8"/>
         <item x="9"/>
         <item x="10"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="22"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -3016,33 +4450,42 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="12">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="21"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="22"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="20"/>
     </i>
     <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
+      <x v="23"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -3057,98 +4500,98 @@
     </i>
   </colItems>
   <pageFields count="2">
-    <pageField fld="3" item="0" hier="-1"/>
+    <pageField fld="3" item="1" hier="-1"/>
     <pageField fld="4" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="2">
+    <dataField name="Suma z Cmax  [średnia]" fld="1" baseField="0" baseItem="0"/>
     <dataField name="Suma z t [ms]" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Suma z Cmax  [średnia]" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="23">
-    <format dxfId="22">
+    <format dxfId="138">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="139">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="140">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="141">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="142">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="143">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="144">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="145">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="146">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="147">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="148">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="149">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="150">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="151">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="152">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="153">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="154">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="155">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="156">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="157">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="158">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="159">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="7">
@@ -3163,7 +4606,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="160">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -3179,7 +4622,7 @@
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -3188,7 +4631,7 @@
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -3505,15 +4948,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1B5508-3774-44D2-93BC-D3D6801778E0}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
@@ -3524,7 +4967,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="24">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C1" s="25"/>
     </row>
@@ -3542,15 +4985,15 @@
       <c r="B3" s="26"/>
       <c r="C3" s="25"/>
     </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>13</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -3562,40 +5005,40 @@
         <v>2</v>
       </c>
       <c r="B5" s="29">
-        <v>1.9</v>
+        <v>4435</v>
       </c>
       <c r="C5" s="29">
-        <v>2590</v>
+        <v>4.0019999999999998</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B6" s="29">
-        <v>167.28290000000001</v>
+        <v>3994</v>
       </c>
       <c r="C6" s="29">
-        <v>2318.6999999999998</v>
+        <v>2641</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B7" s="29">
-        <v>346.69900000000001</v>
+        <v>3988</v>
       </c>
       <c r="C7" s="29">
-        <v>2322</v>
+        <v>2705</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -3604,13 +5047,13 @@
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="29">
-        <v>328.10599999999999</v>
+        <v>3956</v>
       </c>
       <c r="C8" s="29">
-        <v>2312.1</v>
+        <v>2327.1482999999998</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -3622,99 +5065,131 @@
         <v>6</v>
       </c>
       <c r="B9" s="29">
-        <v>342.99299999999999</v>
+        <v>3950</v>
       </c>
       <c r="C9" s="29">
-        <v>2320.1</v>
+        <v>4636.88</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B10" s="29">
-        <v>484.149</v>
+        <v>3940</v>
       </c>
       <c r="C10" s="29">
-        <v>2300.3000000000002</v>
+        <v>7002</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B11" s="29">
-        <v>953.4</v>
+        <v>3937</v>
       </c>
       <c r="C11" s="29">
-        <v>2297</v>
+        <v>4512.53</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B12" s="29">
-        <v>588.6</v>
+        <v>3935</v>
       </c>
       <c r="C12" s="29">
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+        <v>4675.1629999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B13" s="29">
-        <v>356.8</v>
+        <v>3930</v>
       </c>
       <c r="C13" s="29">
-        <v>2326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-    </row>
-    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-    </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-    </row>
-    <row r="17" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-    </row>
-    <row r="18" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-    </row>
-    <row r="19" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-    </row>
-    <row r="20" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-    </row>
-    <row r="21" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="29">
+        <v>3913</v>
+      </c>
+      <c r="C14" s="29">
+        <v>6803.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="29">
+        <v>3908</v>
+      </c>
+      <c r="C15" s="29">
+        <v>6942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="29">
+        <v>3870</v>
+      </c>
+      <c r="C16" s="29">
+        <v>129509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
     </row>
-    <row r="22" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="A4:C20">
+    <sortCondition ref="C4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
@@ -3725,7 +5200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929F22A8-E983-4847-84A3-FE2FC09A0A6D}">
   <dimension ref="E4:I76"/>
   <sheetViews>
-    <sheetView topLeftCell="C56" workbookViewId="0">
+    <sheetView topLeftCell="C26" workbookViewId="0">
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
@@ -5794,8 +7269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7376BE-C64E-4BF5-9D33-B914886586CB}">
   <dimension ref="B1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
